--- a/DS-Memory-Bench.xlsx
+++ b/DS-Memory-Bench.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hamel/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hamel/github/deepspeed-lora/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58ACB277-1A8B-154C-AEE0-0720716BE94E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA924CE6-3DA0-8946-BB3A-67A03056F1D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" xr2:uid="{010EF1E1-AD14-1241-929E-F6FE59D9099F}"/>
+    <workbookView xWindow="72300" yWindow="500" windowWidth="28040" windowHeight="17440" xr2:uid="{010EF1E1-AD14-1241-929E-F6FE59D9099F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="54">
   <si>
     <t># of GPUs</t>
   </si>
@@ -189,6 +189,15 @@
   </si>
   <si>
     <t>https://wandb.ai/hamelsmu/deepspeed-bench/runs/memtest4%E2%80%94z3-2gpu-bs1-34b-v2</t>
+  </si>
+  <si>
+    <t>1h 52m 3s</t>
+  </si>
+  <si>
+    <t>6m 48s</t>
+  </si>
+  <si>
+    <t>https://wandb.ai/hamelsmu/deepspeed-bench/runs/memtest5%E2%80%94z3-3gpu-bs100-34b-v2/system?workspace=user-hamelsmu</t>
   </si>
 </sst>
 </file>
@@ -343,7 +352,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -393,12 +402,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -714,10 +717,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{421BEFCC-4010-AF43-977C-4C4C92F4295A}">
-  <dimension ref="C6:X19"/>
+  <dimension ref="C6:X22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="V16" sqref="V16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="V22" sqref="V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -920,23 +923,23 @@
       <c r="O9" s="11">
         <v>2</v>
       </c>
-      <c r="P9" s="21">
+      <c r="P9" s="2">
         <v>4</v>
       </c>
-      <c r="Q9" s="21">
-        <v>3</v>
-      </c>
-      <c r="R9" s="21" t="s">
+      <c r="Q9" s="2">
+        <v>3</v>
+      </c>
+      <c r="R9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="S9" s="21">
+      <c r="S9" s="2">
         <v>0.998</v>
       </c>
-      <c r="T9" s="22">
+      <c r="T9" s="6">
         <f t="shared" ref="T9:T13" si="0">48*S9</f>
         <v>47.903999999999996</v>
       </c>
-      <c r="U9" s="22">
+      <c r="U9" s="6">
         <f t="shared" ref="U9:U10" si="1">T9*O9</f>
         <v>95.807999999999993</v>
       </c>
@@ -1104,7 +1107,9 @@
         <f>H12*C12</f>
         <v>95.039999999999992</v>
       </c>
-      <c r="J12" s="16"/>
+      <c r="J12" s="16" t="s">
+        <v>51</v>
+      </c>
       <c r="K12" s="20" t="s">
         <v>50</v>
       </c>
@@ -1114,23 +1119,23 @@
       <c r="O12" s="11">
         <v>2</v>
       </c>
-      <c r="P12" s="21">
+      <c r="P12" s="2">
         <v>8</v>
       </c>
-      <c r="Q12" s="21">
-        <v>3</v>
-      </c>
-      <c r="R12" s="21" t="s">
+      <c r="Q12" s="2">
+        <v>3</v>
+      </c>
+      <c r="R12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="S12" s="21">
+      <c r="S12" s="2">
         <v>0.997</v>
       </c>
-      <c r="T12" s="22">
+      <c r="T12" s="6">
         <f t="shared" si="0"/>
         <v>47.856000000000002</v>
       </c>
-      <c r="U12" s="22">
+      <c r="U12" s="6">
         <f t="shared" si="2"/>
         <v>95.712000000000003</v>
       </c>
@@ -1334,14 +1339,76 @@
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="7" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="O21">
+        <v>3</v>
+      </c>
+      <c r="P21">
+        <v>100</v>
+      </c>
+      <c r="Q21">
+        <v>3</v>
+      </c>
+      <c r="R21" t="s">
+        <v>5</v>
+      </c>
+      <c r="S21" s="2">
+        <v>0.999</v>
+      </c>
+      <c r="T21" s="6">
+        <f t="shared" ref="T21" si="4">48*S21</f>
+        <v>47.951999999999998</v>
+      </c>
+      <c r="U21" s="6">
+        <f t="shared" ref="U21" si="5">T21*O21</f>
+        <v>143.85599999999999</v>
+      </c>
+      <c r="V21" t="s">
+        <v>52</v>
+      </c>
+      <c r="W21" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="X21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="O22">
+        <v>2</v>
+      </c>
+      <c r="P22">
+        <v>10</v>
+      </c>
+      <c r="Q22">
+        <v>2</v>
+      </c>
+      <c r="R22" t="s">
+        <v>5</v>
+      </c>
+      <c r="S22" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="T22" s="6">
+        <f t="shared" ref="T22" si="6">48*S22</f>
+        <v>47.519999999999996</v>
+      </c>
+      <c r="U22" s="6">
+        <f t="shared" ref="U22" si="7">T22*O22</f>
+        <v>95.039999999999992</v>
+      </c>
+      <c r="X22" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1360,6 +1427,7 @@
     <hyperlink ref="W12" r:id="rId12" xr:uid="{3BFE94CF-FD87-AD41-A4FB-23E638AC1FBF}"/>
     <hyperlink ref="W13" r:id="rId13" xr:uid="{889B4C77-AB81-5F44-B4B9-2D2E144F05B3}"/>
     <hyperlink ref="K12" r:id="rId14" xr:uid="{ACEAEA9A-3D6E-F849-B48F-EBCED5CD65E1}"/>
+    <hyperlink ref="W21" r:id="rId15" xr:uid="{6C7E52CA-7061-0B49-818E-C4F6E8584EFE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
